--- a/论文/materials/数据表.xlsx
+++ b/论文/materials/数据表.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\QR-Code_ACMS\论文\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E294FC55-5FE3-42BC-920C-8604043BA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84142D5C-3E14-4C06-B4A5-F971B0052D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="访客用户" sheetId="6" r:id="rId1"/>
     <sheet name="普通用户" sheetId="8" r:id="rId2"/>
     <sheet name="用户账户" sheetId="11" r:id="rId3"/>
-    <sheet name="用户组" sheetId="12" r:id="rId4"/>
-    <sheet name="用户权限" sheetId="4" r:id="rId5"/>
-    <sheet name="进入记录" sheetId="5" r:id="rId6"/>
-    <sheet name="外出记录" sheetId="9" r:id="rId7"/>
-    <sheet name="访客进出" sheetId="1" r:id="rId8"/>
-    <sheet name="门禁列表" sheetId="2" r:id="rId9"/>
+    <sheet name="用户权限" sheetId="4" r:id="rId4"/>
+    <sheet name="用户组" sheetId="12" r:id="rId5"/>
+    <sheet name="门禁列表" sheetId="2" r:id="rId6"/>
+    <sheet name="进入记录" sheetId="5" r:id="rId7"/>
+    <sheet name="外出记录" sheetId="9" r:id="rId8"/>
+    <sheet name="访客出入" sheetId="1" r:id="rId9"/>
     <sheet name="用户点击" sheetId="7" r:id="rId10"/>
     <sheet name="登陆访问时长" sheetId="3" r:id="rId11"/>
     <sheet name="文件上传" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk165050304" localSheetId="7">门禁列表!$A$3</definedName>
+    <definedName name="_Hlk165050304" localSheetId="8">门禁列表!$A$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="192">
   <si>
     <t>编号</t>
   </si>
@@ -147,21 +147,6 @@
   </si>
   <si>
     <t>更新时间</t>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>表access_control_list (门禁列表)</t>
@@ -630,17 +615,17 @@
     <t>注册位置:</t>
   </si>
   <si>
-    <t>表user_group (用户组：用于用户前端身份和鉴权)</t>
+    <t>visitor_access_id</t>
+  </si>
+  <si>
+    <t>访客进出ID</t>
+  </si>
+  <si>
+    <t>表user_group (用户前端身份鉴权)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>visitor_access_id</t>
-  </si>
-  <si>
-    <t>访客进出ID</t>
-  </si>
-  <si>
-    <t>表visitor_access (访客进出)</t>
+    <t>表visitor_access (访客出入)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1043,14 +1028,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1106,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1125,7 +1110,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1133,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1152,7 +1137,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1160,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1179,7 +1164,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1206,7 +1191,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1214,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1233,7 +1218,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1241,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1259,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1320,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1403,7 +1388,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1459,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1478,7 +1463,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1486,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1507,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1536,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1565,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1573,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1592,7 +1577,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1600,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1619,7 +1604,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1648,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1658,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1729,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1748,7 +1733,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1756,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1775,7 +1760,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1783,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>65535</v>
@@ -1808,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1829,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1858,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -1887,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1895,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1916,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1997,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2016,7 +2001,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2043,7 +2028,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2070,7 +2055,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2097,7 +2082,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -2124,7 +2109,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2132,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2153,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2161,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2180,7 +2165,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2188,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -2207,7 +2192,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2225,14 +2210,14 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2288,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2307,7 +2292,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2315,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2334,7 +2319,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2342,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2361,7 +2346,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2369,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2388,7 +2373,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2396,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -2415,7 +2400,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2423,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2442,7 +2427,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2450,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2469,7 +2454,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2477,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -2496,7 +2481,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2504,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -2522,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2583,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2666,7 +2651,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2722,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -2741,7 +2726,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="64.8" x14ac:dyDescent="0.25">
@@ -2749,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2770,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
@@ -2778,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -2797,7 +2782,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2805,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -2826,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="64.8" x14ac:dyDescent="0.25">
@@ -2834,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -2853,7 +2838,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.25">
@@ -2861,10 +2846,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2882,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
@@ -2890,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2909,7 +2894,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -2917,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -2936,7 +2921,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75.599999999999994" x14ac:dyDescent="0.25">
@@ -2944,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -2963,7 +2948,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="64.8" x14ac:dyDescent="0.25">
@@ -2971,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -2990,7 +2975,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.25">
@@ -2998,10 +2983,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -3019,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3027,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -3046,7 +3031,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3075,7 +3060,7 @@
         <v>31</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3089,18 +3074,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB51E-A06E-432A-843F-D78E3C718E5B}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F60122-1420-41F8-A538-AA23332D2145}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3151,15 +3136,642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>255</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>255</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>500</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB51E-A06E-432A-843F-D78E3C718E5B}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -3175,7 +3787,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3183,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -3204,7 +3816,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3212,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -3231,7 +3843,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
@@ -3239,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -3258,7 +3870,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3266,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -3285,7 +3897,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3293,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -3312,7 +3924,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3320,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3341,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,10 +3961,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -3370,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3399,7 +4011,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3428,7 +4040,7 @@
         <v>31</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3441,19 +4053,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F60122-1420-41F8-A538-AA23332D2145}">
-  <dimension ref="A1:I24"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23423C3E-A0FA-4869-BA53-CB0433DF6C63}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3504,12 +4116,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -3528,15 +4140,15 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -3555,15 +4167,15 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -3582,7 +4194,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3590,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -3609,7 +4221,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3617,13 +4229,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -3636,21 +4248,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
         <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
-        <v>255</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3663,21 +4275,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3690,7 +4302,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3698,13 +4310,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3715,11 +4327,11 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>69</v>
+      <c r="H11" s="2">
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -3727,13 +4339,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3744,321 +4356,43 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2">
-        <v>65535</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2">
-        <v>65535</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2">
-        <v>65535</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>500</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2">
-        <v>65535</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="4">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -4068,19 +4402,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DCE6D9-18DD-48E1-9920-9BDAFD8770F1}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4136,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -4155,7 +4489,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
@@ -4244,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -4263,7 +4597,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -4271,7 +4605,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4292,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4300,7 +4634,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -4319,7 +4653,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -4327,7 +4661,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -4346,7 +4680,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -4373,7 +4707,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -4381,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -4400,7 +4734,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4408,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -4427,7 +4761,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -4435,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -4454,7 +4788,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
@@ -4462,7 +4796,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -4481,520 +4815,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1A81A2-BB7B-4E73-BB93-97A9715B994F}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2">
-        <v>255</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5095,18 +4916,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1A81A2-BB7B-4E73-BB93-97A9715B994F}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5157,12 +4978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -5181,7 +5002,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
@@ -5270,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -5289,7 +5110,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -5297,7 +5118,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -5318,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -5345,21 +5166,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -5372,15 +5193,15 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -5399,15 +5220,15 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -5426,7 +5247,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,28 +5255,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -5463,60 +5282,143 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="2">
         <v>19</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="19" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D19" s="4">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -5527,18 +5429,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23423C3E-A0FA-4869-BA53-CB0433DF6C63}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5589,12 +5491,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -5613,7 +5515,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
@@ -5702,13 +5604,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -5721,7 +5623,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -5729,13 +5631,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -5746,9 +5648,11 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -5756,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -5775,7 +5679,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5783,28 +5687,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
@@ -5812,60 +5714,143 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="2">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="16" spans="1:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D16" s="4">
         <v>19</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
